--- a/Excel/Excels/HAttack.xlsx
+++ b/Excel/Excels/HAttack.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="H行动池" sheetId="5" r:id="rId1"/>
     <sheet name="H攻击信息" sheetId="1" r:id="rId2"/>
     <sheet name="H攻击条件信息" sheetId="7" r:id="rId3"/>
     <sheet name="H部位战斗信息" sheetId="8" r:id="rId4"/>
+    <sheet name="H技能组信息" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t>INT32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +367,141 @@
   </si>
   <si>
     <t>1;2;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSkillGroupInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能（通常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能（绝顶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薇组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级（越低越靠前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:Tuple4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,50,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,1,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,0,0</t>
+  </si>
+  <si>
+    <t>4,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99722;99724</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -967,8 +1103,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>100</v>
+      <c r="E6" t="s">
+        <v>107</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -996,8 +1132,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>101</v>
+      <c r="E7" t="s">
+        <v>107</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -1025,8 +1161,8 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>102</v>
+      <c r="E8" t="s">
+        <v>107</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1054,8 +1190,8 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>103</v>
+      <c r="E9" t="s">
+        <v>107</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -1083,8 +1219,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>201</v>
+      <c r="E10" t="s">
+        <v>107</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -1112,8 +1248,8 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>202</v>
+      <c r="E11" t="s">
+        <v>107</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -1141,8 +1277,8 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>203</v>
+      <c r="E12" t="s">
+        <v>107</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -1167,8 +1303,8 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>301</v>
+      <c r="E13" t="s">
+        <v>107</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -1193,8 +1329,8 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>302</v>
+      <c r="E14" t="s">
+        <v>107</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1219,8 +1355,8 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>401</v>
+      <c r="E15" t="s">
+        <v>107</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -1245,8 +1381,8 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>402</v>
+      <c r="E16" t="s">
+        <v>107</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -1274,8 +1410,8 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>999</v>
+      <c r="E17" t="s">
+        <v>107</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -1704,4 +1840,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>99725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>99723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>99721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>99720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>99730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>99730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>99730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>99730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>99730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>99799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>301</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>99798</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Excels/HAttack.xlsx
+++ b/Excel/Excels/HAttack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="H行动池" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
   <si>
     <t>INT32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TargetPart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抚唇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抚摸胸部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重揉胸部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,18 +193,6 @@
   </si>
   <si>
     <t>Conditions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KuaiGanRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,147 +341,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1;2;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSkillGroupInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能（通常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能（绝顶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薇组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级（越低越靠前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:Tuple4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,50,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,1,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,0,0</t>
+  </si>
+  <si>
+    <t>4,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99722;99724;99726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KuaiGanRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础快感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageTiLi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害(p1+p2*hAtk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
     <t>部位
-1口 2乳 3穴 4尻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSkillGroupInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能（通常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能（绝顶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裸身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫薇组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级（越低越靠前）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST:Tuple4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,50,0;4,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,0;4,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4,1,0;4,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,0,0</t>
-  </si>
-  <si>
-    <t>4,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,4,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99722;99724</t>
+0无接触 1口 2乳 3穴 4尻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抚摸胸部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageKuaiGan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +880,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -853,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -867,18 +902,18 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -897,10 +932,10 @@
         <v>20000</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -908,10 +943,10 @@
         <v>20001</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -919,7 +954,7 @@
         <v>5030</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -930,27 +965,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="9" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="26.625" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="3" max="11" width="24.25" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
+    <col min="13" max="13" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -958,34 +993,40 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -993,34 +1034,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
       <c r="K3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1028,405 +1075,466 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>202</v>
-      </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>301</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="I13">
-        <v>100</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>302</v>
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>100</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="I16">
-        <v>100</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>401</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>402</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>999</v>
       </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
         <v>999</v>
       </c>
-      <c r="I17">
-        <v>100</v>
-      </c>
-      <c r="J17" t="s">
-        <v>59</v>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>999</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1446,12 +1554,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,13 +1567,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1490,10 +1598,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1624,7 +1732,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1632,77 +1740,77 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1736,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1762,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1788,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1814,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1846,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1859,7 +1967,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1867,16 +1975,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,13 +1995,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1904,13 +2012,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1935,13 +2043,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1949,10 +2057,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1966,10 +2074,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1983,10 +2091,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2000,10 +2108,10 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2017,10 +2125,10 @@
         <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2034,10 +2142,10 @@
         <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -2051,10 +2159,10 @@
         <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -2068,10 +2176,10 @@
         <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -2085,10 +2193,10 @@
         <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -2102,10 +2210,10 @@
         <v>300</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -2119,10 +2227,10 @@
         <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D17">
         <v>30</v>

--- a/Excel/Excels/HAttack.xlsx
+++ b/Excel/Excels/HAttack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="H行动池" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="160">
   <si>
     <t>INT32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抚唇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吮指</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +157,6 @@
   </si>
   <si>
     <t>女性标准池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,235 +193,438 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HAttackConditionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用条件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发敌方H行为显示 999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型 1 衣装 2 自身欲望 3 主角欲望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPartFightInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitKuaiGan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CounterKuaiGan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxXingFen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinXingFen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuoJing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击快感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈快感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴奋上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴奋下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础索精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSkillGroupInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能（通常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能（绝顶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薇组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级（越低越靠前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST:Tuple4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,50,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,1,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,0,0</t>
+  </si>
+  <si>
+    <t>4,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>抚摸胸部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HAttackInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HAttackConditionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用条件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快感率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发敌方H行为显示 999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件类型 1 衣装 2 自身欲望 3 主角欲望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HPartFightInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitKuaiGan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CounterKuaiGan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxXingFen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinXingFen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SuoJing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击快感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈快感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴奋上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴奋下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础索精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSkillGroupInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能（通常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能（绝顶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裸身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫薇组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级（越低越靠前）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST:Tuple4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,0,0,0</t>
+    <t>SelfKuaiGan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害(p1+p2*hAtk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成快感(p1+p2*hAtk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyKuaiGan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得快感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位
+0无接触 1口 2乳 3穴 4尻 5体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发敌方H行为显示 1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发敌方H行为显示 1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发敌方H行为显示 1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发敌方H行为显示 1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发敌方H行为显示 1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -437,106 +632,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1,0;4,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4,1,0;4,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,0,0</t>
-  </si>
-  <si>
-    <t>4,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,4,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99722;99724;99726</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetPart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KuaiGanRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础快感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageTiLi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害(p1+p2*hAtk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-  <si>
-    <t>部位
-0无接触 1口 2乳 3穴 4尻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抚摸胸部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageKuaiGan</t>
+    <t>2,1,50,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,50,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,50,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,50,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,50,0;4,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TiWei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抚唇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99722;99724;99726,99731</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +1004,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,10 +1012,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,18 +1026,18 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,10 +1056,10 @@
         <v>20000</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -943,10 +1067,10 @@
         <v>20001</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -954,7 +1078,7 @@
         <v>5030</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -965,27 +1089,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="11" width="24.25" customWidth="1"/>
-    <col min="12" max="12" width="26.625" customWidth="1"/>
-    <col min="13" max="13" width="25.375" customWidth="1"/>
+    <col min="3" max="12" width="24.25" customWidth="1"/>
+    <col min="13" max="13" width="26.625" customWidth="1"/>
+    <col min="14" max="14" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -993,40 +1117,43 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1034,40 +1161,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
       <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1075,40 +1205,43 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1148,13 +1281,16 @@
       <c r="M5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>9979000</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1162,22 +1298,34 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>102</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6">
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10</v>
+        <v>9979010</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1185,80 +1333,104 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>102</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>9979100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>100</v>
       </c>
-      <c r="B8" t="s">
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9979101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9979102</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1266,28 +1438,34 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>101</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9979103</v>
+      </c>
+      <c r="B11" t="s">
         <v>126</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1295,28 +1473,34 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>101</v>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>100</v>
       </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>201</v>
+        <v>9979201</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1324,28 +1508,34 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>101</v>
+      <c r="E12">
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12">
+        <v>151</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>100</v>
       </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>202</v>
+        <v>9979202</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1353,28 +1543,34 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>101</v>
+      <c r="E13">
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13">
+        <v>153</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13">
         <v>100</v>
       </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>203</v>
+        <v>9979203</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1382,51 +1578,69 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>101</v>
+      <c r="E14">
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14">
         <v>100</v>
       </c>
-      <c r="J14">
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9979301</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15">
         <v>100</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>301</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>302</v>
+        <v>9979302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1434,25 +1648,34 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>101</v>
+      <c r="E16">
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="K16">
         <v>100</v>
       </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>401</v>
+        <v>9979401</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1460,25 +1683,34 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>101</v>
+      <c r="E17">
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="K17">
         <v>100</v>
       </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="L17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>402</v>
+        <v>9979402</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1486,55 +1718,227 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>101</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="K18">
         <v>100</v>
       </c>
-      <c r="J18">
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9979900</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
+      <c r="M19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9979901</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>200</v>
+      </c>
+      <c r="M20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9979902</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>200</v>
+      </c>
+      <c r="M21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9979903</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>200</v>
+      </c>
+      <c r="M22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9979904</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9999999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>999</v>
+      </c>
+      <c r="K24">
         <v>100</v>
       </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="L24">
         <v>999</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>999</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19">
-        <v>999</v>
-      </c>
-      <c r="L19" t="s">
-        <v>54</v>
+      <c r="M24" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1953,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,13 +1971,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1598,10 +2002,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1732,7 +2136,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1740,77 +2144,77 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1844,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1870,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1896,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1922,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1954,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1967,7 +2371,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1975,16 +2379,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1995,13 +2399,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2012,13 +2416,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2043,13 +2447,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2057,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2074,10 +2478,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -2091,10 +2495,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2108,10 +2512,10 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2125,10 +2529,10 @@
         <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2142,10 +2546,10 @@
         <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -2159,10 +2563,10 @@
         <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -2176,10 +2580,10 @@
         <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -2193,10 +2597,10 @@
         <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -2210,10 +2614,10 @@
         <v>300</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -2227,10 +2631,10 @@
         <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D17">
         <v>30</v>
